--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3203721.31162969</v>
+        <v>3307900.946080763</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8094272.4357463</v>
+        <v>8094272.435746299</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>375.6295659715742</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.400304892654608</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>122.1695696835033</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>57.18240783352748</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>245.099839914452</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>31.86562382405586</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>184.3755225607023</v>
+        <v>141.7614152959627</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>94.41084736720629</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.17639526046325</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>254.1385731803659</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>135.3286065175535</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1576,19 +1578,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.72336853883965</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1816,16 +1818,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>22.44547853568549</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.2857567969026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>106.5290632934502</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>37.17792077063368</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.799772605716619</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>183.1813225058491</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>158.7974735697944</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6099304363192</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.2604189625029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>56.45752097953234</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>26.05480806223599</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>76.28317487965505</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>27.77749086859636</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>172.3494546525259</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.972675199008</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C2" t="n">
-        <v>1642.972675199008</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D2" t="n">
-        <v>1284.706976592258</v>
+        <v>879.7731733615585</v>
       </c>
       <c r="E2" t="n">
-        <v>898.9187239940134</v>
+        <v>493.9849207633143</v>
       </c>
       <c r="F2" t="n">
-        <v>487.9328192044058</v>
+        <v>82.99901597370672</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>71.96696985910727</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.57251526313</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,10 +4412,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,22 +4427,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181845</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C4" t="n">
-        <v>751.9508228902777</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D4" t="n">
-        <v>601.8341834779419</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>601.8341834779419</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>454.9442359800315</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>287.2413993547505</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>382.3382468580007</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4571,7 +4573,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>2746.967338392416</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4752,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>252.7500180086504</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>252.7500180086504</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>777.6936570343842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3268.861988012744</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3062.884240396966</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3062.884240396966</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.821353053395</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2379.052697783281</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X8" t="n">
-        <v>2005.586939522201</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
         <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>442.4147609125939</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5081,7 +5083,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>448.1846595309957</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L12" t="n">
-        <v>943.5102657467545</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>1540.888753373306</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232836</v>
@@ -5191,10 +5193,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510509</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>585.5419721347374</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5428,10 +5430,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969303</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935562</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C25" t="n">
-        <v>666.6476097656493</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>516.5309703533136</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>368.6178767709205</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>368.6178767709205</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>201.4217774858004</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6242,16 +6244,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7016,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811332</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2186.371995553553</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.7540666811332</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7193,19 +7195,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>923.4916164683287</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>754.5554335404219</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683287</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.644273983533</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.085317957303</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2824.769373306004</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C46" t="n">
-        <v>2796.711301721563</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D46" t="n">
-        <v>2646.594662309227</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309227</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309227</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024107</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053499</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.37685307644</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420638</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.617138214751</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.199968177791</v>
+        <v>3570.526779979876</v>
       </c>
       <c r="X46" t="n">
-        <v>3227.210417279774</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="Y46" t="n">
-        <v>3006.417838136244</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
   </sheetData>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.91821458107435</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.69767948409159</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>144.8013425629424</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>31.93331737597609</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>33.76564955277362</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>181.4067325814611</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>25.79551989096908</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.3242343895919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>92.15795203868001</v>
+        <v>133.693886234629</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>40.32043864788569</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>149.4264805093821</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>139.4693302300315</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>114.1735436840651</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700713.2648968009</v>
+        <v>700713.264896801</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778552</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778554</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778552</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
@@ -26329,31 +26331,31 @@
         <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210059</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210057</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687966</v>
@@ -26451,7 +26453,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151828</v>
+        <v>-791337.8375151833</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124094</v>
+        <v>537406.9082124096</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124091</v>
+        <v>537406.9082124099</v>
       </c>
       <c r="E6" t="n">
         <v>284460.3080828632</v>
@@ -26534,34 +26536,34 @@
         <v>609872.7698902186</v>
       </c>
       <c r="G6" t="n">
+        <v>609872.7698902187</v>
+      </c>
+      <c r="H6" t="n">
+        <v>609872.7698902186</v>
+      </c>
+      <c r="I6" t="n">
         <v>609872.7698902185</v>
       </c>
-      <c r="H6" t="n">
-        <v>609872.7698902184</v>
-      </c>
-      <c r="I6" t="n">
-        <v>609872.7698902184</v>
-      </c>
       <c r="J6" t="n">
-        <v>392341.5674929407</v>
+        <v>392341.5674929416</v>
       </c>
       <c r="K6" t="n">
-        <v>609872.7698902184</v>
+        <v>609872.7698902189</v>
       </c>
       <c r="L6" t="n">
-        <v>609872.7698902183</v>
+        <v>609872.7698902189</v>
       </c>
       <c r="M6" t="n">
-        <v>524817.7419547066</v>
+        <v>524817.7419547068</v>
       </c>
       <c r="N6" t="n">
-        <v>609872.7698902183</v>
+        <v>609872.7698902186</v>
       </c>
       <c r="O6" t="n">
-        <v>609872.7698902184</v>
+        <v>609872.769890219</v>
       </c>
       <c r="P6" t="n">
-        <v>609872.7698902185</v>
+        <v>609872.7698902189</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>35.29215968187924</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>289.2074594946658</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>22.58544523081753</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>194.9552354903005</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>104.141128802961</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>354.3723148319978</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>41.3341328283349</v>
+        <v>83.94824009307445</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>270.8620444038013</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.01136652771259</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>32.38442515622512</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>344.6306853939237</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31996,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817577</v>
@@ -32072,34 +32074,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>764.2478901092629</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>150.7833302198383</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,31 +33034,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860823</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>454.5606621218849</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321073</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868572</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>186.6878763515707</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>206.7892464195648</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>632.9061780259296</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.190340064064</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>316.7192231475259</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640639</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3307900.946080763</v>
+        <v>3303888.336066771</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>5.400304892654608</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>23.74571998351869</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>57.18240783352748</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386283</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>14.95687341106226</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.86562382405586</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>19.52918235370532</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>141.7614152959627</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>94.41084736720629</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>22.86125478512508</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>58.28185552386283</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>254.1385731803659</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>135.3286065175535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282043</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>99.72336853883965</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>20.22544352992953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>22.44547853568549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>135.3135037226517</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.17792077063368</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>183.1813225058491</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>158.7974735697944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>191.6099304363192</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444153</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>14.92158678358339</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189018</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.05480806223599</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>172.3494546525259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968309</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.038871968309</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>879.7731733615585</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>493.9849207633143</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>82.99901597370672</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>71.96696985910727</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032431</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.3382468580007</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>440.0982547706548</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>382.3382468580007</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>382.3382468580007</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>382.3382468580007</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.3382468580007</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649821</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379707</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118627</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>700.0944266746541</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>531.1582437467472</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>381.0416043344114</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>233.1285107520183</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>86.23856325410796</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X7" t="n">
-        <v>777.6936570343842</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y7" t="n">
-        <v>777.6936570343842</v>
+        <v>700.0944266746541</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2029.572515263129</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678283</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3302.513645058537</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3048.983168332374</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2717.920280988803</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2365.151625718689</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263129</v>
+        <v>1991.685867457609</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.572515263129</v>
+        <v>1601.546535481797</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877109</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W10" t="n">
-        <v>442.4147609125939</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X10" t="n">
-        <v>214.4252100145765</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.4252100145765</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5029,43 +5029,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811715</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622266</v>
+        <v>707.6725264685181</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>889.3209912987578</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C16" t="n">
-        <v>733.4550657171305</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>733.4550657171305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>585.5419721347374</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5594,28 +5594,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5834,22 +5834,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6305,25 +6305,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
         <v>484.8112968429803</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6493,22 +6493,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6551,19 +6551,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>549.6145409888043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>731.263005819044</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,52 +6922,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2186.371995553553</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1897.296768897751</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1642.612280691864</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168632</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192832</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.8463580632</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>385.6451336181095</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3570.526779979876</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3342.537229081859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3342.537229081859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>31.91821458107435</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.5054897610398</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>45.69767948409159</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>144.8013425629424</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>31.93331737597609</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>181.4067325814611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>25.79551989096908</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823151</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.32043864788569</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>114.1735436840651</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778556</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778554</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210059</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210056</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073563</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26435,13 +26435,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687966</v>
@@ -26450,10 +26450,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151833</v>
+        <v>-791337.8375151824</v>
       </c>
       <c r="C6" t="n">
+        <v>537406.9082124092</v>
+      </c>
+      <c r="D6" t="n">
         <v>537406.9082124096</v>
       </c>
-      <c r="D6" t="n">
-        <v>537406.9082124099</v>
-      </c>
       <c r="E6" t="n">
-        <v>284460.3080828632</v>
+        <v>284112.9288285054</v>
       </c>
       <c r="F6" t="n">
-        <v>609872.7698902186</v>
+        <v>609525.3906358624</v>
       </c>
       <c r="G6" t="n">
-        <v>609872.7698902187</v>
+        <v>609525.3906358615</v>
       </c>
       <c r="H6" t="n">
-        <v>609872.7698902186</v>
+        <v>609525.3906358617</v>
       </c>
       <c r="I6" t="n">
-        <v>609872.7698902185</v>
+        <v>609525.3906358617</v>
       </c>
       <c r="J6" t="n">
-        <v>392341.5674929416</v>
+        <v>391994.1882385842</v>
       </c>
       <c r="K6" t="n">
-        <v>609872.7698902189</v>
+        <v>609525.3906358618</v>
       </c>
       <c r="L6" t="n">
-        <v>609872.7698902189</v>
+        <v>609525.3906358615</v>
       </c>
       <c r="M6" t="n">
-        <v>524817.7419547068</v>
+        <v>524470.3627003497</v>
       </c>
       <c r="N6" t="n">
-        <v>609872.7698902186</v>
+        <v>609525.3906358619</v>
       </c>
       <c r="O6" t="n">
-        <v>609872.769890219</v>
+        <v>609525.3906358617</v>
       </c>
       <c r="P6" t="n">
-        <v>609872.7698902189</v>
+        <v>609525.3906358618</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>289.2074594946658</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>362.4922186725349</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.738725912720952e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>194.9552354903005</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.302797828232</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>312.7953850590727</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>354.3723148319978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>146.4966259053229</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>83.94824009307445</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>270.8620444038013</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>181.0567153544951</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>30.65029714618454</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>32.38442515622512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-5.780283390417842e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,10 +32314,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32554,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,13 +33025,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33499,10 +33499,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>454.5606621218849</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>530.5785304507792</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067255</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34447,10 +34447,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>186.6878763515707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37147,10 +37147,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>316.7192231475259</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>388.4444965287609</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319604</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38095,10 +38095,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>44.0916319071262</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3303888.336066771</v>
+        <v>3305648.866369556</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>331.4097589280062</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.74571998351869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734071385</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222606</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>14.95687341106226</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>19.52918235370532</v>
+        <v>19.52918235370597</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>273.85642674403</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>22.86125478512508</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>58.28185552386283</v>
+        <v>58.28185552386362</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695798</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U13" t="n">
-        <v>160.6789846282043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444153</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189018</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263129</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y2" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068413</v>
@@ -4433,28 +4433,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678284</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993391</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993391</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700.0944266746541</v>
+        <v>700.0944266746548</v>
       </c>
       <c r="C7" t="n">
-        <v>531.1582437467472</v>
+        <v>531.1582437467479</v>
       </c>
       <c r="D7" t="n">
-        <v>381.0416043344114</v>
+        <v>381.0416043344121</v>
       </c>
       <c r="E7" t="n">
-        <v>233.1285107520183</v>
+        <v>233.128510752019</v>
       </c>
       <c r="F7" t="n">
-        <v>86.23856325410796</v>
+        <v>86.23856325410864</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746541</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1878.169188758595</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1509.206671818183</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1150.940973211433</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>765.1527206131884</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678283</v>
+        <v>354.1668158235809</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218338</v>
+        <v>343.1347697089814</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3302.513645058537</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3048.983168332374</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2717.920280988803</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.151625718689</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>1991.685867457609</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.546535481797</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4944,46 +4944,46 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
         <v>862.0164446829692</v>
@@ -5023,67 +5023,67 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.6725264685181</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406112</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987578</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5697,19 +5697,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
         <v>1729.097755135313</v>
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,34 +6244,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6493,22 +6493,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6849,7 +6849,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168632</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362702</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192832</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111739</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706077</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427008</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
         <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.8463580632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
         <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085243</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879356</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
         <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443776</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008474</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U13" t="n">
-        <v>125.5054897610398</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823151</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>700713.2648968009</v>
+        <v>700713.264896801</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073563</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551207</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26441,7 +26441,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687966</v>
@@ -26450,10 +26450,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151824</v>
+        <v>-791337.8375151829</v>
       </c>
       <c r="C6" t="n">
         <v>537406.9082124092</v>
@@ -26530,40 +26530,40 @@
         <v>537406.9082124096</v>
       </c>
       <c r="E6" t="n">
-        <v>284112.9288285054</v>
+        <v>284425.5701574274</v>
       </c>
       <c r="F6" t="n">
-        <v>609525.3906358624</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="G6" t="n">
-        <v>609525.3906358615</v>
+        <v>609838.0319647832</v>
       </c>
       <c r="H6" t="n">
-        <v>609525.3906358617</v>
+        <v>609838.0319647831</v>
       </c>
       <c r="I6" t="n">
-        <v>609525.3906358617</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="J6" t="n">
-        <v>391994.1882385842</v>
+        <v>392306.8295675052</v>
       </c>
       <c r="K6" t="n">
-        <v>609525.3906358618</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="L6" t="n">
-        <v>609525.3906358615</v>
+        <v>609838.0319647827</v>
       </c>
       <c r="M6" t="n">
-        <v>524470.3627003497</v>
+        <v>524783.004029271</v>
       </c>
       <c r="N6" t="n">
-        <v>609525.3906358619</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="O6" t="n">
-        <v>609525.3906358617</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="P6" t="n">
-        <v>609525.3906358618</v>
+        <v>609838.0319647832</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973569</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973569</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>17.83120978940678</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4922186725349</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.738725912720952e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.302797828232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108.8774149194509</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>312.7953850590727</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>146.4966259053229</v>
+        <v>146.4966259053222</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>20.75133764329041</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>181.0567153544951</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>30.65029714618454</v>
+        <v>30.65029714618371</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-5.780283390417842e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
